--- a/Code/Results/Cases/Case_9_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.38789608138211</v>
+        <v>2.318901997853686</v>
       </c>
       <c r="C2">
-        <v>0.3480511161722859</v>
+        <v>0.3572307601514098</v>
       </c>
       <c r="D2">
-        <v>0.09720667387465909</v>
+        <v>0.09831032579619148</v>
       </c>
       <c r="E2">
-        <v>0.06695098807169053</v>
+        <v>0.06477487240343827</v>
       </c>
       <c r="F2">
-        <v>0.6842281319037369</v>
+        <v>0.6493718954260359</v>
       </c>
       <c r="G2">
-        <v>0.4373333461001323</v>
+        <v>0.3891320846206128</v>
       </c>
       <c r="H2">
-        <v>0.001080752614980418</v>
+        <v>0.0008240772082149794</v>
       </c>
       <c r="I2">
-        <v>0.001377239404253494</v>
+        <v>0.001060807001776354</v>
       </c>
       <c r="J2">
-        <v>0.3536046592602844</v>
+        <v>0.3714621769295121</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07650288059394406</v>
+        <v>0.1649955703571351</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0893939676333062</v>
       </c>
       <c r="N2">
-        <v>0.2799247017774178</v>
+        <v>0.07295943041842445</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9297819538668577</v>
+        <v>0.2957361850070725</v>
       </c>
       <c r="Q2">
-        <v>1.615423705482698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9388806559539873</v>
+      </c>
+      <c r="S2">
+        <v>1.51692013016185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.084186263561662</v>
+        <v>2.028808831900164</v>
       </c>
       <c r="C3">
-        <v>0.3204250770760098</v>
+        <v>0.3230977690869139</v>
       </c>
       <c r="D3">
-        <v>0.09034693532233007</v>
+        <v>0.09141415527145824</v>
       </c>
       <c r="E3">
-        <v>0.06444593616894068</v>
+        <v>0.06259768868993554</v>
       </c>
       <c r="F3">
-        <v>0.6539693539486109</v>
+        <v>0.6230694763616427</v>
       </c>
       <c r="G3">
-        <v>0.4141570353020114</v>
+        <v>0.3703106706550798</v>
       </c>
       <c r="H3">
-        <v>0.002057877492184002</v>
+        <v>0.001630146582647929</v>
       </c>
       <c r="I3">
-        <v>0.002235892964344011</v>
+        <v>0.001640515270683984</v>
       </c>
       <c r="J3">
-        <v>0.346720334408424</v>
+        <v>0.3637167762412332</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07448550807896837</v>
+        <v>0.1694019111508638</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.08736249086575398</v>
       </c>
       <c r="N3">
-        <v>0.248533895326446</v>
+        <v>0.0712499538463911</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9308191909539048</v>
+        <v>0.262327644521207</v>
       </c>
       <c r="Q3">
-        <v>1.551592771359481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9320344193562136</v>
+      </c>
+      <c r="S3">
+        <v>1.463707346265522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.896971535056906</v>
+        <v>1.849650864586636</v>
       </c>
       <c r="C4">
-        <v>0.3035234889188132</v>
+        <v>0.3023122102687381</v>
       </c>
       <c r="D4">
-        <v>0.08616514161086997</v>
+        <v>0.08721621281290481</v>
       </c>
       <c r="E4">
-        <v>0.0628925314851454</v>
+        <v>0.06124417253316672</v>
       </c>
       <c r="F4">
-        <v>0.6358596700937582</v>
+        <v>0.6072626144049025</v>
       </c>
       <c r="G4">
-        <v>0.400284583824849</v>
+        <v>0.3590961756043569</v>
       </c>
       <c r="H4">
-        <v>0.00284342737370058</v>
+        <v>0.002286311466244917</v>
       </c>
       <c r="I4">
-        <v>0.00296185249013492</v>
+        <v>0.002163981989380392</v>
       </c>
       <c r="J4">
-        <v>0.3427491005570218</v>
+        <v>0.3590298406852384</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07320487493096284</v>
+        <v>0.1721849968444928</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.08667857674467427</v>
       </c>
       <c r="N4">
-        <v>0.2293205374941891</v>
+        <v>0.07015863027859481</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9321807007743246</v>
+        <v>0.2419144220210399</v>
       </c>
       <c r="Q4">
-        <v>1.513686184896443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.9286477543852456</v>
+      </c>
+      <c r="S4">
+        <v>1.431941567744062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.819414281402942</v>
+        <v>1.775314519585748</v>
       </c>
       <c r="C5">
-        <v>0.2970555275858118</v>
+        <v>0.2943187640898941</v>
       </c>
       <c r="D5">
-        <v>0.08448136257939609</v>
+        <v>0.08552770559087719</v>
       </c>
       <c r="E5">
-        <v>0.06223213110941828</v>
+        <v>0.06066556524480937</v>
       </c>
       <c r="F5">
-        <v>0.6281587144254175</v>
+        <v>0.6004792710181661</v>
       </c>
       <c r="G5">
-        <v>0.3943334231908366</v>
+        <v>0.3542397494438774</v>
       </c>
       <c r="H5">
-        <v>0.003210469930560067</v>
+        <v>0.002594496867568963</v>
       </c>
       <c r="I5">
-        <v>0.003380595672525022</v>
+        <v>0.002504858075720762</v>
       </c>
       <c r="J5">
-        <v>0.3409964356686075</v>
+        <v>0.3569371123311313</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07264261013612572</v>
+        <v>0.1731890590195668</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.08646862247436538</v>
       </c>
       <c r="N5">
-        <v>0.221679684952278</v>
+        <v>0.06967598135828545</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9332690109993251</v>
+        <v>0.2337980317776669</v>
       </c>
       <c r="Q5">
-        <v>1.497323528239349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.9278524706173528</v>
+      </c>
+      <c r="S5">
+        <v>1.418023521706047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.805204828023477</v>
+        <v>1.761650057171835</v>
       </c>
       <c r="C6">
-        <v>0.2964812390346054</v>
+        <v>0.2935292508216492</v>
       </c>
       <c r="D6">
-        <v>0.08421831860324147</v>
+        <v>0.08526429093880949</v>
       </c>
       <c r="E6">
-        <v>0.06209367959202261</v>
+        <v>0.06054148498339629</v>
       </c>
       <c r="F6">
-        <v>0.6263559616926173</v>
+        <v>0.598839488524014</v>
       </c>
       <c r="G6">
-        <v>0.3928817508981908</v>
+        <v>0.3529891739635715</v>
       </c>
       <c r="H6">
-        <v>0.003276776395442937</v>
+        <v>0.002650338183723289</v>
       </c>
       <c r="I6">
-        <v>0.003551978469349848</v>
+        <v>0.002679220894632905</v>
       </c>
       <c r="J6">
-        <v>0.3404687435723446</v>
+        <v>0.3563469690553376</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07251245978494758</v>
+        <v>0.1731750024587804</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08635383035888466</v>
       </c>
       <c r="N6">
-        <v>0.2206264517524801</v>
+        <v>0.06956198559155968</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9338983658213351</v>
+        <v>0.2326707683257467</v>
       </c>
       <c r="Q6">
-        <v>1.493128074532066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9282049188890085</v>
+      </c>
+      <c r="S6">
+        <v>1.414271324522062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.8923097331664</v>
+        <v>1.843758054037579</v>
       </c>
       <c r="C7">
-        <v>0.304803798469564</v>
+        <v>0.3033107772373995</v>
       </c>
       <c r="D7">
-        <v>0.08618656070480313</v>
+        <v>0.08736108326798586</v>
       </c>
       <c r="E7">
-        <v>0.06280587286428307</v>
+        <v>0.06117872728444951</v>
       </c>
       <c r="F7">
-        <v>0.6343059129166093</v>
+        <v>0.6049476243008485</v>
       </c>
       <c r="G7">
-        <v>0.3989237641184573</v>
+        <v>0.360679898848673</v>
       </c>
       <c r="H7">
-        <v>0.002854920031631569</v>
+        <v>0.002299541886607082</v>
       </c>
       <c r="I7">
-        <v>0.003221729810404028</v>
+        <v>0.002468454842708745</v>
       </c>
       <c r="J7">
-        <v>0.3420692019334908</v>
+        <v>0.3540537205521588</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07309907926332304</v>
+        <v>0.1715410813337641</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.08633182352810209</v>
       </c>
       <c r="N7">
-        <v>0.2298050418347941</v>
+        <v>0.07004900059167962</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9334061511123153</v>
+        <v>0.2423450579348128</v>
       </c>
       <c r="Q7">
-        <v>1.509376156546466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.9304405076120332</v>
+      </c>
+      <c r="S7">
+        <v>1.425273662483306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.278492500087566</v>
+        <v>2.209911425766336</v>
       </c>
       <c r="C8">
-        <v>0.3403458173433762</v>
+        <v>0.3461858943135212</v>
       </c>
       <c r="D8">
-        <v>0.09489390522585239</v>
+        <v>0.09639690693463621</v>
       </c>
       <c r="E8">
-        <v>0.06598822165586959</v>
+        <v>0.06399013022455513</v>
       </c>
       <c r="F8">
-        <v>0.6717769875930131</v>
+        <v>0.6356834843780774</v>
       </c>
       <c r="G8">
-        <v>0.4275692838287739</v>
+        <v>0.3905858835057217</v>
       </c>
       <c r="H8">
-        <v>0.001383787538723258</v>
+        <v>0.001079647530753736</v>
       </c>
       <c r="I8">
-        <v>0.001935094109842161</v>
+        <v>0.001589421828178672</v>
       </c>
       <c r="J8">
-        <v>0.3503109236913104</v>
+        <v>0.3539085755577958</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0756878368318219</v>
+        <v>0.1654009975983648</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08784659800185857</v>
       </c>
       <c r="N8">
-        <v>0.2698702355784377</v>
+        <v>0.07222193421721634</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9316557219235619</v>
+        <v>0.2847958953222332</v>
       </c>
       <c r="Q8">
-        <v>1.587731274682397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9398899883283818</v>
+      </c>
+      <c r="S8">
+        <v>1.484830890769899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.036691011080677</v>
+        <v>2.930991739920387</v>
       </c>
       <c r="C9">
-        <v>0.4081504388598205</v>
+        <v>0.430378031630255</v>
       </c>
       <c r="D9">
-        <v>0.1121474885120435</v>
+        <v>0.1138938408253836</v>
       </c>
       <c r="E9">
-        <v>0.07225413173030404</v>
+        <v>0.06944558679175827</v>
       </c>
       <c r="F9">
-        <v>0.7518262277067791</v>
+        <v>0.7043385310736383</v>
       </c>
       <c r="G9">
-        <v>0.4891120988011153</v>
+        <v>0.4438318895435742</v>
       </c>
       <c r="H9">
-        <v>5.681914152999568E-05</v>
+        <v>2.68433251990885E-05</v>
       </c>
       <c r="I9">
-        <v>0.0007030527744653625</v>
+        <v>0.000808163093084957</v>
       </c>
       <c r="J9">
-        <v>0.3697735978925323</v>
+        <v>0.3705587355450461</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.08061513861041014</v>
+        <v>0.1553786665304884</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09619209968670361</v>
       </c>
       <c r="N9">
-        <v>0.3479474938320948</v>
+        <v>0.07636477456531399</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9319371812796788</v>
+        <v>0.3680485927084334</v>
       </c>
       <c r="Q9">
-        <v>1.759613095703514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9608546338355239</v>
+      </c>
+      <c r="S9">
+        <v>1.625564682106557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.573923439219641</v>
+        <v>3.432959832191841</v>
       </c>
       <c r="C10">
-        <v>0.4616815356013149</v>
+        <v>0.4940443071444633</v>
       </c>
       <c r="D10">
-        <v>0.1231335632199375</v>
+        <v>0.1257889698479175</v>
       </c>
       <c r="E10">
-        <v>0.07492921205131431</v>
+        <v>0.0717275533027415</v>
       </c>
       <c r="F10">
-        <v>0.8036158650225289</v>
+        <v>0.7432835653235301</v>
       </c>
       <c r="G10">
-        <v>0.5296415115868314</v>
+        <v>0.4963065477874267</v>
       </c>
       <c r="H10">
-        <v>0.0003266917185875684</v>
+        <v>0.0003471539207318131</v>
       </c>
       <c r="I10">
-        <v>0.001072785335645143</v>
+        <v>0.001336947758126428</v>
       </c>
       <c r="J10">
-        <v>0.3820676441321069</v>
+        <v>0.3569143829537325</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.08265246193496978</v>
+        <v>0.1464296104395366</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1029012263808227</v>
       </c>
       <c r="N10">
-        <v>0.3952351881112151</v>
+        <v>0.07802220714232178</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9424991835113588</v>
+        <v>0.4184452218779455</v>
       </c>
       <c r="Q10">
-        <v>1.871719952855699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9905601854040214</v>
+      </c>
+      <c r="S10">
+        <v>1.700686312572913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.681187708372192</v>
+        <v>3.524538750241959</v>
       </c>
       <c r="C11">
-        <v>0.5112749134870853</v>
+        <v>0.5414660892085692</v>
       </c>
       <c r="D11">
-        <v>0.1121558642074518</v>
+        <v>0.1160206488841027</v>
       </c>
       <c r="E11">
-        <v>0.06239184454566349</v>
+        <v>0.05991903419926281</v>
       </c>
       <c r="F11">
-        <v>0.7476383762873553</v>
+        <v>0.6818157475315019</v>
       </c>
       <c r="G11">
-        <v>0.4928639567426814</v>
+        <v>0.499725610980235</v>
       </c>
       <c r="H11">
-        <v>0.01890313326625304</v>
+        <v>0.01890737853653945</v>
       </c>
       <c r="I11">
-        <v>0.001765530456061093</v>
+        <v>0.002128959933576091</v>
       </c>
       <c r="J11">
-        <v>0.3600630431417784</v>
+        <v>0.2949714476487841</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.07677983400939481</v>
+        <v>0.1320623920414636</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.09363686916080738</v>
       </c>
       <c r="N11">
-        <v>0.3279861770865722</v>
+        <v>0.07401845673633556</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1.00405856119761</v>
+        <v>0.347704159217372</v>
       </c>
       <c r="Q11">
-        <v>1.747856649986488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.068142000458366</v>
+      </c>
+      <c r="S11">
+        <v>1.558217780278312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.661884405294529</v>
+        <v>3.504635183619769</v>
       </c>
       <c r="C12">
-        <v>0.5409230620085168</v>
+        <v>0.5677583596512648</v>
       </c>
       <c r="D12">
-        <v>0.1010029637882681</v>
+        <v>0.1051325326519077</v>
       </c>
       <c r="E12">
-        <v>0.05441653052290274</v>
+        <v>0.05243785479317875</v>
       </c>
       <c r="F12">
-        <v>0.692624362697039</v>
+        <v>0.6280668003427081</v>
       </c>
       <c r="G12">
-        <v>0.4558078446191161</v>
+        <v>0.4818058224562662</v>
       </c>
       <c r="H12">
-        <v>0.05753616275477924</v>
+        <v>0.05753624531510582</v>
       </c>
       <c r="I12">
-        <v>0.001792320800008795</v>
+        <v>0.002148880533818343</v>
       </c>
       <c r="J12">
-        <v>0.3400279863741531</v>
+        <v>0.2637186777060023</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.07835253421092858</v>
+        <v>0.1234899352153587</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.08552549944715082</v>
       </c>
       <c r="N12">
-        <v>0.266293748003406</v>
+        <v>0.07710596083163068</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.056516303054408</v>
+        <v>0.2828303001043366</v>
       </c>
       <c r="Q12">
-        <v>1.627411665686793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.12767001901274</v>
+      </c>
+      <c r="S12">
+        <v>1.43966984006974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.538456413598794</v>
+        <v>3.395765854005617</v>
       </c>
       <c r="C13">
-        <v>0.5588184101191871</v>
+        <v>0.5826267588640519</v>
       </c>
       <c r="D13">
-        <v>0.08919037806060004</v>
+        <v>0.09269894531627187</v>
       </c>
       <c r="E13">
-        <v>0.04934323159031839</v>
+        <v>0.04775752090215724</v>
       </c>
       <c r="F13">
-        <v>0.6329262996665292</v>
+        <v>0.5762217421658917</v>
       </c>
       <c r="G13">
-        <v>0.4143643609870509</v>
+        <v>0.4374760767990153</v>
       </c>
       <c r="H13">
-        <v>0.1131996811568285</v>
+        <v>0.1132036174661408</v>
       </c>
       <c r="I13">
-        <v>0.001646984390609063</v>
+        <v>0.001999276292325547</v>
       </c>
       <c r="J13">
-        <v>0.3192845887170677</v>
+        <v>0.2544660418996685</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.08540669280974456</v>
+        <v>0.1178870845716151</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.07769951767201633</v>
       </c>
       <c r="N13">
-        <v>0.2065816922471555</v>
+        <v>0.08544947320741159</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.105904154443564</v>
+        <v>0.220130175935779</v>
       </c>
       <c r="Q13">
-        <v>1.496096740853829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.17504655441455</v>
+      </c>
+      <c r="S13">
+        <v>1.330445260310796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.404287470180236</v>
+        <v>3.278262139067806</v>
       </c>
       <c r="C14">
-        <v>0.566518427916634</v>
+        <v>0.5883883894339306</v>
       </c>
       <c r="D14">
-        <v>0.08077858822490214</v>
+        <v>0.08354929714780468</v>
       </c>
       <c r="E14">
-        <v>0.04750889821320159</v>
+        <v>0.0461864497875657</v>
       </c>
       <c r="F14">
-        <v>0.5891712190737621</v>
+        <v>0.5404249663643554</v>
       </c>
       <c r="G14">
-        <v>0.3833947969555567</v>
+        <v>0.3960013781883873</v>
       </c>
       <c r="H14">
-        <v>0.162478895215898</v>
+        <v>0.162484539996214</v>
       </c>
       <c r="I14">
-        <v>0.001567754073812822</v>
+        <v>0.001927749703505732</v>
       </c>
       <c r="J14">
-        <v>0.3044257820550769</v>
+        <v>0.2560454852256484</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.09363068547175857</v>
+        <v>0.1150474808605537</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07241583461686218</v>
       </c>
       <c r="N14">
-        <v>0.1669981070480944</v>
+        <v>0.09441536594302491</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.139710888517115</v>
+        <v>0.178564630386326</v>
       </c>
       <c r="Q14">
-        <v>1.399274767732265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.203011082197122</v>
+      </c>
+      <c r="S14">
+        <v>1.25675842070774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.348483808950164</v>
+        <v>3.229348588149094</v>
       </c>
       <c r="C15">
-        <v>0.5663346509039968</v>
+        <v>0.5878469814626328</v>
       </c>
       <c r="D15">
-        <v>0.0785552493838324</v>
+        <v>0.08102298263623453</v>
       </c>
       <c r="E15">
-        <v>0.04727773920345657</v>
+        <v>0.04603015522481613</v>
       </c>
       <c r="F15">
-        <v>0.5770163174561276</v>
+        <v>0.5312990707340077</v>
       </c>
       <c r="G15">
-        <v>0.3744865989611128</v>
+        <v>0.3811264782164159</v>
       </c>
       <c r="H15">
-        <v>0.1749602254347735</v>
+        <v>0.1749651325119146</v>
       </c>
       <c r="I15">
-        <v>0.001635158262403458</v>
+        <v>0.00201648591644954</v>
       </c>
       <c r="J15">
-        <v>0.3004511422615792</v>
+        <v>0.2598100170476343</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.09591711566643824</v>
+        <v>0.1147088914485597</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07107331743083201</v>
       </c>
       <c r="N15">
-        <v>0.1572379426030182</v>
+        <v>0.09684687921806301</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.147219999658802</v>
+        <v>0.1683256852631061</v>
       </c>
       <c r="Q15">
-        <v>1.372034481901608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.207271535516213</v>
+      </c>
+      <c r="S15">
+        <v>1.238540332679236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.143090931442316</v>
+        <v>3.048008200918048</v>
       </c>
       <c r="C16">
-        <v>0.5397119419487808</v>
+        <v>0.5614417833357948</v>
       </c>
       <c r="D16">
-        <v>0.076519057845438</v>
+        <v>0.07792115387575649</v>
       </c>
       <c r="E16">
-        <v>0.04720413730149819</v>
+        <v>0.04604972572639432</v>
       </c>
       <c r="F16">
-        <v>0.5666631466833323</v>
+        <v>0.5303019965981832</v>
       </c>
       <c r="G16">
-        <v>0.3650799217247425</v>
+        <v>0.3439895402728439</v>
       </c>
       <c r="H16">
-        <v>0.1621042949773681</v>
+        <v>0.1620886175475533</v>
       </c>
       <c r="I16">
-        <v>0.001588142394271408</v>
+        <v>0.001955876159056125</v>
       </c>
       <c r="J16">
-        <v>0.2990408394653343</v>
+        <v>0.2917566410280727</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.09327427515785658</v>
+        <v>0.1187571198910824</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07111345172156724</v>
       </c>
       <c r="N16">
-        <v>0.1509859943576259</v>
+        <v>0.09398167544384606</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.130017959940517</v>
+        <v>0.1619025528398836</v>
       </c>
       <c r="Q16">
-        <v>1.348953113097622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.174623641673222</v>
+      </c>
+      <c r="S16">
+        <v>1.244229409289616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.056566445454166</v>
+        <v>2.969037669749127</v>
       </c>
       <c r="C17">
-        <v>0.5153289424283116</v>
+        <v>0.5375133402808956</v>
       </c>
       <c r="D17">
-        <v>0.07933800446271988</v>
+        <v>0.08038529065949973</v>
       </c>
       <c r="E17">
-        <v>0.04783606194150325</v>
+        <v>0.04657060492748344</v>
       </c>
       <c r="F17">
-        <v>0.5817441219421653</v>
+        <v>0.547720741185536</v>
       </c>
       <c r="G17">
-        <v>0.3741784398580279</v>
+        <v>0.3406530417401328</v>
       </c>
       <c r="H17">
-        <v>0.1242879485289734</v>
+        <v>0.1242504469695689</v>
       </c>
       <c r="I17">
-        <v>0.001632466450059766</v>
+        <v>0.001982979578657229</v>
       </c>
       <c r="J17">
-        <v>0.3058222977916643</v>
+        <v>0.313148302687182</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.08633434440966781</v>
+        <v>0.1236056753268215</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.07367926820800541</v>
       </c>
       <c r="N17">
-        <v>0.1664219326765703</v>
+        <v>0.08652937311224562</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.099226769233852</v>
+        <v>0.1781852073934402</v>
       </c>
       <c r="Q17">
-        <v>1.38232741770355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.136935823521057</v>
+      </c>
+      <c r="S17">
+        <v>1.285305961665756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.064726204624662</v>
+        <v>2.97468280067028</v>
       </c>
       <c r="C18">
-        <v>0.4892302616906932</v>
+        <v>0.5128309235589654</v>
       </c>
       <c r="D18">
-        <v>0.08693048557528016</v>
+        <v>0.08794763659575011</v>
       </c>
       <c r="E18">
-        <v>0.05067722031891986</v>
+        <v>0.04907686901223185</v>
       </c>
       <c r="F18">
-        <v>0.6221231283013751</v>
+        <v>0.5861732806784303</v>
       </c>
       <c r="G18">
-        <v>0.4015542785150643</v>
+        <v>0.3603032353644409</v>
       </c>
       <c r="H18">
-        <v>0.07146051276966148</v>
+        <v>0.07141697106531097</v>
       </c>
       <c r="I18">
-        <v>0.001415712701422933</v>
+        <v>0.001711881571290874</v>
       </c>
       <c r="J18">
-        <v>0.3210202844442591</v>
+        <v>0.333647788584571</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07811874851416434</v>
+        <v>0.13039912570909</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.07917313977764806</v>
       </c>
       <c r="N18">
-        <v>0.2051622689679533</v>
+        <v>0.07741465744293308</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.053707055953168</v>
+        <v>0.2189249326764582</v>
       </c>
       <c r="Q18">
-        <v>1.472125809656347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.088877607271911</v>
+      </c>
+      <c r="S18">
+        <v>1.370292707618802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.141256398568316</v>
+        <v>3.042128347372795</v>
       </c>
       <c r="C19">
-        <v>0.4674083414060988</v>
+        <v>0.4934877853116575</v>
       </c>
       <c r="D19">
-        <v>0.09840585840920824</v>
+        <v>0.09958553316813124</v>
       </c>
       <c r="E19">
-        <v>0.05728824521263132</v>
+        <v>0.05515706773388107</v>
       </c>
       <c r="F19">
-        <v>0.6790646813152748</v>
+        <v>0.6383708519086611</v>
       </c>
       <c r="G19">
-        <v>0.4405218640859374</v>
+        <v>0.3934508911456192</v>
       </c>
       <c r="H19">
-        <v>0.02622141619018947</v>
+        <v>0.02619330886639659</v>
       </c>
       <c r="I19">
-        <v>0.001530335921240855</v>
+        <v>0.001862645980474475</v>
       </c>
       <c r="J19">
-        <v>0.3411913326035574</v>
+        <v>0.3537727348259239</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.0743315223447456</v>
+        <v>0.1381276817572026</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0865056011037737</v>
       </c>
       <c r="N19">
-        <v>0.2657993280607656</v>
+        <v>0.07234276975605969</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1.005672528356499</v>
+        <v>0.2825933630344082</v>
       </c>
       <c r="Q19">
-        <v>1.596960777470116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.040951231508032</v>
+      </c>
+      <c r="S19">
+        <v>1.482250475091945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.420853264589709</v>
+        <v>3.294461291595667</v>
       </c>
       <c r="C20">
-        <v>0.4521661773559913</v>
+        <v>0.4836217807551009</v>
       </c>
       <c r="D20">
-        <v>0.1202985200241358</v>
+        <v>0.1222589731465504</v>
       </c>
       <c r="E20">
-        <v>0.07391914407524247</v>
+        <v>0.07076529002433851</v>
       </c>
       <c r="F20">
-        <v>0.78494696986305</v>
+        <v>0.7311488361053691</v>
       </c>
       <c r="G20">
-        <v>0.5145963977815882</v>
+        <v>0.4675818163244259</v>
       </c>
       <c r="H20">
-        <v>0.0001615676494046703</v>
+        <v>0.0001810068360819095</v>
       </c>
       <c r="I20">
-        <v>0.001662897103745564</v>
+        <v>0.002061415362987873</v>
       </c>
       <c r="J20">
-        <v>0.37658666893077</v>
+        <v>0.3727207199758453</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.08178695362910382</v>
+        <v>0.148063651252702</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1002819048147252</v>
       </c>
       <c r="N20">
-        <v>0.3841962507783308</v>
+        <v>0.07733954114423192</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9439558227727076</v>
+        <v>0.4068313074721601</v>
       </c>
       <c r="Q20">
-        <v>1.828234247004332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9853226373754467</v>
+      </c>
+      <c r="S20">
+        <v>1.676755505347757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.857495167369564</v>
+        <v>3.674846018055746</v>
       </c>
       <c r="C21">
-        <v>0.4886914353273539</v>
+        <v>0.5212327865994837</v>
       </c>
       <c r="D21">
-        <v>0.1317023114594917</v>
+        <v>0.1369252135263253</v>
       </c>
       <c r="E21">
-        <v>0.07884708966200371</v>
+        <v>0.07563531284413472</v>
       </c>
       <c r="F21">
-        <v>0.8407094731251732</v>
+        <v>0.7600508489055215</v>
       </c>
       <c r="G21">
-        <v>0.557046450953095</v>
+        <v>0.5775970426088861</v>
       </c>
       <c r="H21">
-        <v>0.0005191641077693099</v>
+        <v>0.000503663537044563</v>
       </c>
       <c r="I21">
-        <v>0.002198777149513553</v>
+        <v>0.002592478067446891</v>
       </c>
       <c r="J21">
-        <v>0.3918023812808116</v>
+        <v>0.299256513876422</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08545726722868707</v>
+        <v>0.1413144380700295</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1058041801726297</v>
       </c>
       <c r="N21">
-        <v>0.4370627380792627</v>
+        <v>0.08013732947690855</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9438759695141243</v>
+        <v>0.4617404064769062</v>
       </c>
       <c r="Q21">
-        <v>1.950418739347981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.011311811966067</v>
+      </c>
+      <c r="S21">
+        <v>1.718605792499176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.139751388269701</v>
+        <v>3.917992938414557</v>
       </c>
       <c r="C22">
-        <v>0.5121107372451661</v>
+        <v>0.5445069413901535</v>
       </c>
       <c r="D22">
-        <v>0.1381731307605918</v>
+        <v>0.1458124480184892</v>
       </c>
       <c r="E22">
-        <v>0.08122658595325838</v>
+        <v>0.07808418427202923</v>
       </c>
       <c r="F22">
-        <v>0.8750346906928286</v>
+        <v>0.7755694760875684</v>
       </c>
       <c r="G22">
-        <v>0.5837841073873875</v>
+        <v>0.6581336689326207</v>
       </c>
       <c r="H22">
-        <v>0.001065313078929098</v>
+        <v>0.0009754352108171105</v>
       </c>
       <c r="I22">
-        <v>0.002497749657813131</v>
+        <v>0.002757127572531104</v>
       </c>
       <c r="J22">
-        <v>0.401307390402792</v>
+        <v>0.2553943505361858</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.0872608203384555</v>
+        <v>0.1367752284973527</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.109399041430116</v>
       </c>
       <c r="N22">
-        <v>0.4654309054600532</v>
+        <v>0.08148352514309742</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9457234405659989</v>
+        <v>0.4910673288177207</v>
       </c>
       <c r="Q22">
-        <v>2.027212595332401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.031515556866395</v>
+      </c>
+      <c r="S22">
+        <v>1.739006425237136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.99357134150813</v>
+        <v>3.796322246417674</v>
       </c>
       <c r="C23">
-        <v>0.4978939240407385</v>
+        <v>0.5312238688869968</v>
       </c>
       <c r="D23">
-        <v>0.1346615683796557</v>
+        <v>0.1406418814014785</v>
       </c>
       <c r="E23">
-        <v>0.08004616602888426</v>
+        <v>0.07680207604410327</v>
       </c>
       <c r="F23">
-        <v>0.8583589118229327</v>
+        <v>0.7710100236576665</v>
       </c>
       <c r="G23">
-        <v>0.5709746921547634</v>
+        <v>0.6074100994472644</v>
       </c>
       <c r="H23">
-        <v>0.0007539287898510327</v>
+        <v>0.0007114565254566774</v>
       </c>
       <c r="I23">
-        <v>0.002022522427988172</v>
+        <v>0.00230031262240793</v>
       </c>
       <c r="J23">
-        <v>0.3969689410040047</v>
+        <v>0.2862534452609751</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08640970709480378</v>
+        <v>0.1398152042590191</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1082609289977796</v>
       </c>
       <c r="N23">
-        <v>0.4495657782398581</v>
+        <v>0.08088331840170149</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9430024084200141</v>
+        <v>0.4748385563345465</v>
       </c>
       <c r="Q23">
-        <v>1.990862060708878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.017091305649984</v>
+      </c>
+      <c r="S23">
+        <v>1.739081456973935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.432186375060041</v>
+        <v>3.305036850469776</v>
       </c>
       <c r="C24">
-        <v>0.4469964877250447</v>
+        <v>0.4783637573663384</v>
       </c>
       <c r="D24">
-        <v>0.1215338048193146</v>
+        <v>0.1234950461457629</v>
       </c>
       <c r="E24">
-        <v>0.07542727366183222</v>
+        <v>0.07219563007963181</v>
       </c>
       <c r="F24">
-        <v>0.7938487879439293</v>
+        <v>0.7395265417519497</v>
       </c>
       <c r="G24">
-        <v>0.5211788680032754</v>
+        <v>0.4730388058578541</v>
       </c>
       <c r="H24">
-        <v>5.329400819231722E-05</v>
+        <v>7.453664345402622E-05</v>
       </c>
       <c r="I24">
-        <v>0.001182538202781913</v>
+        <v>0.00148189444619895</v>
       </c>
       <c r="J24">
-        <v>0.3799922650639758</v>
+        <v>0.3765778841360259</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.08296411938045267</v>
+        <v>0.1496813698051582</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1018072378732064</v>
       </c>
       <c r="N24">
-        <v>0.3908451628843608</v>
+        <v>0.07831023045591934</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9369966464463459</v>
+        <v>0.4138178391528982</v>
       </c>
       <c r="Q24">
-        <v>1.849316092334135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9777674389531228</v>
+      </c>
+      <c r="S24">
+        <v>1.696388007283161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.825467383305636</v>
+        <v>2.732129916525253</v>
       </c>
       <c r="C25">
-        <v>0.3922805480442264</v>
+        <v>0.4107456724754854</v>
       </c>
       <c r="D25">
-        <v>0.1075307760360928</v>
+        <v>0.1090290216716312</v>
       </c>
       <c r="E25">
-        <v>0.07043156074613854</v>
+        <v>0.06782198196814981</v>
       </c>
       <c r="F25">
-        <v>0.7270910290472372</v>
+        <v>0.6840521998888605</v>
       </c>
       <c r="G25">
-        <v>0.4697826204970852</v>
+        <v>0.4226778049885098</v>
       </c>
       <c r="H25">
-        <v>0.0002378807383205395</v>
+        <v>0.0001561190653425193</v>
       </c>
       <c r="I25">
-        <v>0.001270366550976121</v>
+        <v>0.001366784328757475</v>
       </c>
       <c r="J25">
-        <v>0.3630874038460092</v>
+        <v>0.3707727327497565</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.0791436052373502</v>
+        <v>0.1575373425801843</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09301739302836154</v>
       </c>
       <c r="N25">
-        <v>0.3278306580630641</v>
+        <v>0.07514212792561636</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9335779983748438</v>
+        <v>0.3466142697485139</v>
       </c>
       <c r="Q25">
-        <v>1.704463220520893</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9562859419866214</v>
+      </c>
+      <c r="S25">
+        <v>1.58309891058974</v>
       </c>
     </row>
   </sheetData>
